--- a/biology/Médecine/Gomphose/Gomphose.xlsx
+++ b/biology/Médecine/Gomphose/Gomphose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une gomphose  est une syndesmose dont les parties osseuses s'emboitent les unes dans les autres comme une cheville. Du point de vue fonctionnel, c'est une synarthrose.  
 Dans l'anatomie humaine, les syndesmoses dento-alvéolaires, qui unissent une dent et son alvéole dentaire de la mâchoire, sont des gomphoses. Elles sont caractérisées par une jonction fibreuse réalisé par les ligaments alvéolo-dentaires.
